--- a/biology/Médecine/Eugène_Boeckel/Eugène_Boeckel.xlsx
+++ b/biology/Médecine/Eugène_Boeckel/Eugène_Boeckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boeckel</t>
+          <t>Eugène_Boeckel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Boeckel, né le 21 septembre 1831 à Strasbourg et mort le 23 février 1900 à Marseille, est un chirurgien alsacien, professeur agrégé à la Faculté de médecine de Strasbourg et l'auteur de nombreuses publications.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boeckel</t>
+          <t>Eugène_Boeckel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du docteur en médecine Théodore Boeckel[1] et de Sophie Frantz, petit-fils du pasteur Jonas Boekel, Eugène Boeckel fait ses études secondaires au Gymnase Jean-Sturm, puis à la Faculté de médecine de Strasbourg. Il soutient sa thèse consacrée à l'ozone en 1856. Après des voyages le menant à Paris, Londres et Constantinople, il obtient par concours le poste de prosecteur de la Faculté de médecine de Strasbourg. Après avoir occupé le poste de chef de travaux anatomiques, il est reçu à l'agrégation de médecine et nommé professeur en 1857.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du docteur en médecine Théodore Boeckel et de Sophie Frantz, petit-fils du pasteur Jonas Boekel, Eugène Boeckel fait ses études secondaires au Gymnase Jean-Sturm, puis à la Faculté de médecine de Strasbourg. Il soutient sa thèse consacrée à l'ozone en 1856. Après des voyages le menant à Paris, Londres et Constantinople, il obtient par concours le poste de prosecteur de la Faculté de médecine de Strasbourg. Après avoir occupé le poste de chef de travaux anatomiques, il est reçu à l'agrégation de médecine et nommé professeur en 1857.
 Il est président de la Société de médecine de Strasbourg en 1869 et dirige le service de chirurgie de l'hôpital de Strasbourg après 1870. Il devient président de l'Association française de chirurgie et en préside le congrès en 1895.
-Le 19 mars 1867 il devient membre de la Société des sciences naturelles de Strasbourg[2].
-Il est chevalier de la Légion d'honneur en 1871, à titre militaire, pour son service en tant que chirurgien en chef des ambulances de Haguenau[3].
-Eugène Boeckel est luthérien, membre de l'Église protestante de la Confession d'Augsbourg d'Alsace et de Lorraine et conseiller presbytéral de l'Église Saint-Nicolas[4].
+Le 19 mars 1867 il devient membre de la Société des sciences naturelles de Strasbourg.
+Il est chevalier de la Légion d'honneur en 1871, à titre militaire, pour son service en tant que chirurgien en chef des ambulances de Haguenau.
+Eugène Boeckel est luthérien, membre de l'Église protestante de la Confession d'Augsbourg d'Alsace et de Lorraine et conseiller presbytéral de l'Église Saint-Nicolas.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boeckel</t>
+          <t>Eugène_Boeckel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'ozone, [Thèse pour obtenir le titre de Docteur en Médecine], Silbermann, Strasbourg, 1856, Texte intégral (numérisation e-rara).
 De l'Uréthrotomie externe dans les rétrécissements uréthraux graves ou compliqués,  Silbermann, Strasbourg, 1868,  In-8° , 56 p. lire en ligne sur Gallica.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boeckel</t>
+          <t>Eugène_Boeckel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un monument surmonté d'un buste en bronze sculpté par Alfred Marzolff est érigé dans l'enceinte de l'Hôpital civil, derrière l'ancienne pharmacie[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un monument surmonté d'un buste en bronze sculpté par Alfred Marzolff est érigé dans l'enceinte de l'Hôpital civil, derrière l'ancienne pharmacie.
 Une rue de Strasbourg, située dans le quartier de l'Hôpital civil porte son nom.
 </t>
         </is>
